--- a/biology/Zoologie/Conus_ermineus/Conus_ermineus.xlsx
+++ b/biology/Zoologie/Conus_ermineus/Conus_ermineus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus ermineus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La longueur maximale enregistrée de la coquille est de 103 mm[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur maximale enregistrée de la coquille est de 103 mm. 
 La conantokine-E est une toxine dérivée du venin de Conus ermineus.
 C'est une espèce qui se nourrit de pêche. Il utilise un harpon creux spécialisé comme la dent radula pour harponner les petits poissons et les paralyser avec du venin pour faciliter la déglutition.
 </t>
@@ -545,11 +559,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans la mer des Caraïbes et le golfe du Mexique jusqu'en Amérique du Sud ; dans l'océan Atlantique au large de l'Afrique de l'Ouest et du Cap-Vert ; dans l'océan Indien au large de la Tanzanie.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce a une large distribution le long des côtes de l'Atlantique Ouest et Est. Il n'y a pas de menaces connues. Cette espèce est classée dans la catégorie "préoccupation mineure"[2].
 </t>
         </is>
       </c>
@@ -575,14 +589,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce a une large distribution le long des côtes de l'Atlantique Ouest et Est. Il n'y a pas de menaces connues. Cette espèce est classée dans la catégorie "préoccupation mineure".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_ermineus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_ermineus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus ermineus a été décrite pour la première fois en 1778 par le métallurgiste, minéralogiste, malacologiste et franc-maçon autrichien Ignaz von Born (1742-1791) dans la publication intitulée « Index rerum naturalium Musei Cæsarei Vindobonensis »[3],[4].
-Synonymes
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus ermineus a été décrite pour la première fois en 1778 par le métallurgiste, minéralogiste, malacologiste et franc-maçon autrichien Ignaz von Born (1742-1791) dans la publication intitulée « Index rerum naturalium Musei Cæsarei Vindobonensis »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_ermineus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_ermineus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Chelyconus ermineus (Born, 1778) · non accepté
 Conus (Chelyconus) ermineus Born, 1778 · appellation alternative
 Conus aspersus G. B. Sowerby I, 1833 · non accepté
@@ -601,8 +693,43 @@
 Conus testudinarius Hwass, 1792 · non accepté
 Conus verrucosus piraticus Clench, 1942 · non accepté
 Cucullus barathrum Röding, 1798 · non accepté
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus ermineus dans les principales bases sont les suivants :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conus_ermineus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_ermineus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus ermineus dans les principales bases sont les suivants :
 BOLD : 303641 - CoL : XXCK - GBIF : 5193232 - iNaturalist : 254777 - IRMNG : 10999912 - NCBI : 460395 - SeaLifeBase : 75344 - TAXREF : 6336 - UICN : 192578 - WoRMS : 215538 - ZOBODAT : 120391 
 </t>
         </is>
